--- a/notion-formula-editor/Xlsx/ResNodes.xlsx
+++ b/notion-formula-editor/Xlsx/ResNodes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29340" windowHeight="13460"/>
+    <workbookView windowWidth="29340" windowHeight="13520"/>
   </bookViews>
   <sheets>
     <sheet name="#ResNodes#" sheetId="1" r:id="rId1"/>
@@ -14,42 +14,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+  <si>
+    <t>ID</t>
+  </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>Menu</t>
   </si>
   <si>
     <t>Prefab</t>
   </si>
   <si>
-    <t>NodeType</t>
+    <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>int</t>
+    <t>编号</t>
   </si>
   <si>
     <t>名称</t>
   </si>
   <si>
-    <t>编号</t>
-  </si>
-  <si>
     <t>菜单列表</t>
   </si>
   <si>
     <t>资源路径</t>
   </si>
   <si>
-    <t>节点类型</t>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>最终结果输出</t>
+  </si>
+  <si>
+    <t>Prefabs/Nodes/ResultNode</t>
   </si>
   <si>
     <t>Constant</t>
@@ -73,9 +76,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -93,7 +96,99 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,130 +202,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,181 +254,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,8 +445,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,21 +515,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -512,175 +539,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1037,19 +1040,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.5480769230769" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1442307692308" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.9230769230769" style="1" customWidth="1"/>
-    <col min="4" max="4" width="38.0769230769231" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.2307692307692" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1442307692308" style="1" customWidth="1"/>
+    <col min="2" max="3" width="19.5480769230769" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.9230769230769" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.0769230769231" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1060,82 +1062,81 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="1">
-        <v>2</v>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/notion-formula-editor/Xlsx/ResNodes.xlsx
+++ b/notion-formula-editor/Xlsx/ResNodes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29340" windowHeight="13520"/>
+    <workbookView windowWidth="24700" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="#ResNodes#" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -64,10 +64,37 @@
     <t>Branch</t>
   </si>
   <si>
-    <t>Operators/if</t>
+    <t>Operators/If</t>
   </si>
   <si>
     <t>Prefabs/Nodes/BranchNode</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>Operators/Add</t>
+  </si>
+  <si>
+    <t>Prefabs/Nodes/AddNode</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Input/Number</t>
+  </si>
+  <si>
+    <t>Prefabs/Nodes/NumberNode</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Input/String</t>
+  </si>
+  <si>
+    <t>Prefabs/Nodes/StringNode</t>
   </si>
 </sst>
 </file>
@@ -75,9 +102,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -103,29 +130,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,17 +160,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,25 +199,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,17 +237,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,14 +253,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,49 +275,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,25 +407,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,103 +431,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,7 +482,57 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,21 +553,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -504,183 +566,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1040,17 +1067,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="13.1442307692308" style="1" customWidth="1"/>
     <col min="2" max="3" width="19.5480769230769" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.9230769230769" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1538461538462" style="1" customWidth="1"/>
     <col min="5" max="5" width="38.0769230769231" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -1139,6 +1166,48 @@
         <v>17</v>
       </c>
     </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>

--- a/notion-formula-editor/Xlsx/ResNodes.xlsx
+++ b/notion-formula-editor/Xlsx/ResNodes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24700" windowHeight="13500"/>
+    <workbookView windowWidth="29340" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="#ResNodes#" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -61,6 +61,33 @@
     <t>Prefabs/Nodes/ConstantNode</t>
   </si>
   <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Input/Number</t>
+  </si>
+  <si>
+    <t>Prefabs/Nodes/NumberNode</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Input/String</t>
+  </si>
+  <si>
+    <t>Prefabs/Nodes/StringNode</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>Input/Boolean</t>
+  </si>
+  <si>
+    <t>Prefabs/Nodes/BooleanNode</t>
+  </si>
+  <si>
     <t>Branch</t>
   </si>
   <si>
@@ -79,22 +106,13 @@
     <t>Prefabs/Nodes/AddNode</t>
   </si>
   <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Input/Number</t>
-  </si>
-  <si>
-    <t>Prefabs/Nodes/NumberNode</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>Input/String</t>
-  </si>
-  <si>
-    <t>Prefabs/Nodes/StringNode</t>
+    <t>Subtract</t>
+  </si>
+  <si>
+    <t>Operators/Subtract</t>
+  </si>
+  <si>
+    <t>Prefabs/Nodes/SubtractNode</t>
   </si>
 </sst>
 </file>
@@ -102,8 +120,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -123,32 +141,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -160,8 +170,70 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,61 +241,29 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,30 +277,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,79 +299,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,97 +461,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,8 +490,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,8 +529,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,6 +550,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -517,200 +580,155 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1067,17 +1085,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="13.1442307692308" style="1" customWidth="1"/>
     <col min="2" max="3" width="19.5480769230769" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1538461538462" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6923076923077" style="1" customWidth="1"/>
     <col min="5" max="5" width="38.0769230769231" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -1208,6 +1226,34 @@
         <v>26</v>
       </c>
     </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>

--- a/notion-formula-editor/Xlsx/ResNodes.xlsx
+++ b/notion-formula-editor/Xlsx/ResNodes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
@@ -113,6 +113,42 @@
   </si>
   <si>
     <t>Prefabs/Nodes/SubtractNode</t>
+  </si>
+  <si>
+    <t>Multiply</t>
+  </si>
+  <si>
+    <t>Operators/Multiply</t>
+  </si>
+  <si>
+    <t>Prefabs/Nodes/MultiplyNode</t>
+  </si>
+  <si>
+    <t>Divide</t>
+  </si>
+  <si>
+    <t>Operators/Divide</t>
+  </si>
+  <si>
+    <t>Prefabs/Nodes/DivideNode</t>
+  </si>
+  <si>
+    <t>Pow</t>
+  </si>
+  <si>
+    <t>Operators/Pow</t>
+  </si>
+  <si>
+    <t>Prefabs/Nodes/PowNode</t>
+  </si>
+  <si>
+    <t>Mod</t>
+  </si>
+  <si>
+    <t>Operators/Mod</t>
+  </si>
+  <si>
+    <t>Prefabs/Nodes/ModNode</t>
   </si>
 </sst>
 </file>
@@ -121,9 +157,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -141,14 +177,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,126 +252,73 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -293,13 +329,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,13 +377,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,151 +467,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,8 +526,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,6 +561,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,9 +597,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,186 +620,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1085,10 +1121,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -1254,6 +1290,62 @@
         <v>32</v>
       </c>
     </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>

--- a/notion-formula-editor/Xlsx/ResNodes.xlsx
+++ b/notion-formula-editor/Xlsx/ResNodes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29340" windowHeight="13500"/>
+    <workbookView windowHeight="15080"/>
   </bookViews>
   <sheets>
     <sheet name="#ResNodes#" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
   <si>
     <t>ID</t>
   </si>
@@ -149,6 +149,96 @@
   </si>
   <si>
     <t>Prefabs/Nodes/ModNode</t>
+  </si>
+  <si>
+    <t>ToNumber</t>
+  </si>
+  <si>
+    <t>Operators/ToNumber</t>
+  </si>
+  <si>
+    <t>Prefabs/Nodes/UnaryPlusNode</t>
+  </si>
+  <si>
+    <t>Not</t>
+  </si>
+  <si>
+    <t>Operators/Not</t>
+  </si>
+  <si>
+    <t>Prefabs/Nodes/NotNode</t>
+  </si>
+  <si>
+    <t>And</t>
+  </si>
+  <si>
+    <t>Operators/And</t>
+  </si>
+  <si>
+    <t>Prefabs/Nodes/AndNode</t>
+  </si>
+  <si>
+    <t>Or</t>
+  </si>
+  <si>
+    <t>Operators/Or</t>
+  </si>
+  <si>
+    <t>Prefabs/Nodes/OrNode</t>
+  </si>
+  <si>
+    <t>Equal</t>
+  </si>
+  <si>
+    <t>Operators/Equal</t>
+  </si>
+  <si>
+    <t>Prefabs/Nodes/EqualNode</t>
+  </si>
+  <si>
+    <t>Unequal</t>
+  </si>
+  <si>
+    <t>Operators/Unequal</t>
+  </si>
+  <si>
+    <t>Prefabs/Nodes/UnequalNode</t>
+  </si>
+  <si>
+    <t>Larger</t>
+  </si>
+  <si>
+    <t>Operators/Larger</t>
+  </si>
+  <si>
+    <t>Prefabs/Nodes/LargerNode</t>
+  </si>
+  <si>
+    <t>LargerEq</t>
+  </si>
+  <si>
+    <t>Operators/LargerEq</t>
+  </si>
+  <si>
+    <t>Prefabs/Nodes/LargerEqNode</t>
+  </si>
+  <si>
+    <t>Smaller</t>
+  </si>
+  <si>
+    <t>Operators/Smaller</t>
+  </si>
+  <si>
+    <t>Prefabs/Nodes/SmallerNode</t>
+  </si>
+  <si>
+    <t>SmallerEq</t>
+  </si>
+  <si>
+    <t>Operators/SmallerEq</t>
+  </si>
+  <si>
+    <t>Prefabs/Nodes/SmallerEqNode</t>
   </si>
 </sst>
 </file>
@@ -156,10 +246,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -190,6 +280,112 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -198,125 +394,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -329,187 +419,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,20 +622,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,6 +652,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -576,6 +672,26 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,174 +710,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1121,10 +1211,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -1346,6 +1436,147 @@
         <v>44</v>
       </c>
     </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>

--- a/notion-formula-editor/Xlsx/ResNodes.xlsx
+++ b/notion-formula-editor/Xlsx/ResNodes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15080"/>
+    <workbookView windowHeight="23560"/>
   </bookViews>
   <sheets>
     <sheet name="#ResNodes#" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="79">
   <si>
     <t>ID</t>
   </si>
@@ -28,6 +28,12 @@
     <t>Prefab</t>
   </si>
   <si>
+    <t>Duplicatable</t>
+  </si>
+  <si>
+    <t>Deletable</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -44,6 +50,12 @@
   </si>
   <si>
     <t>资源路径</t>
+  </si>
+  <si>
+    <t>是否可复制</t>
+  </si>
+  <si>
+    <t>是否可删除</t>
   </si>
   <si>
     <t>Result</t>
@@ -247,8 +259,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -267,12 +279,90 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -281,7 +371,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,25 +386,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -326,82 +407,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -409,6 +414,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -425,181 +437,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,8 +628,73 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,224 +714,159 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1211,22 +1223,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="13.1442307692308" style="1" customWidth="1"/>
     <col min="2" max="3" width="19.5480769230769" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.6923076923077" style="1" customWidth="1"/>
     <col min="5" max="5" width="38.0769230769231" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="15.8461538461538" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7692307692308" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1239,342 +1253,491 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>27</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>30</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>33</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>36</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>39</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>42</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>45</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>48</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>51</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>54</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>57</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>60</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>63</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>66</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>69</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>72</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>75</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="1"/>
+        <v>76</v>
+      </c>
       <c r="D25" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
